--- a/CourseData.xlsx
+++ b/CourseData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\WPI\IQP\code\sustainable-info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathisen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59F7AD-FE5C-4560-8622-B81494B0F336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC5B01D-46EB-4624-A3E8-ECE35EC1DEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEB6BDF-BB32-4D69-97B9-4A169E472CBD}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="15110" windowHeight="8030" xr2:uid="{2CEB6BDF-BB32-4D69-97B9-4A169E472CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="277">
   <si>
     <t>ARCHITECURAL GRAPHICS AND COMMUNICATION</t>
   </si>
@@ -855,6 +855,15 @@
   </si>
   <si>
     <t>16,13,1,2,3,4,3,4, 12, 13,16,17</t>
+  </si>
+  <si>
+    <t>In this course, students learn how to perform analytical methods and conduct laboratory experiments relevant to natural and engineered treatment systems in environmental engineering. Topics in water, wastewater, air, and environmental health are included. The course focuses on data acquisition, analysis, and interpretation as well as technical report writing.</t>
+  </si>
+  <si>
+    <t>3,6,14,15</t>
+  </si>
+  <si>
+    <t>3,12,14</t>
   </si>
 </sst>
 </file>
@@ -919,9 +928,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -959,7 +968,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1065,7 +1074,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1207,7 +1216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1215,22 +1224,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF8B64-D9BF-40A5-8544-496A21F793D8}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>264</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1670,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
@@ -1990,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -2050,858 +2059,864 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
       <c r="C42">
+        <v>4060</v>
+      </c>
+      <c r="D42" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>4063</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
         <v>4071</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>129</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>130</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>3410</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>133</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>271</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44">
-        <v>1011</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>3702</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
+        <v>1011</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>3702</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
         <v>4402</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>141</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>272</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>143</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>3500</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>144</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>145</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48">
-        <v>1110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
-        <v>2117</v>
-      </c>
-      <c r="D49" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50">
+        <v>1110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>2117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52">
         <v>2126</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>153</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>154</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>2237</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>157</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>158</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <v>2310</v>
-      </c>
-      <c r="D52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>2900</v>
-      </c>
-      <c r="D53" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54">
-        <v>3100</v>
+        <v>2310</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
-      </c>
-      <c r="E54">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57">
-        <v>2201</v>
+        <v>1100</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59">
-        <v>2600</v>
+        <v>2201</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60">
+        <v>2400</v>
+      </c>
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>2600</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
         <v>2700</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>182</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>183</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>3002</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
         <v>185</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>186</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>2800</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>188</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>189</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>191</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>1100</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>192</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>193</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>191</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>2900</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>195</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>193</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>197</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>2341</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>198</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>199</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>2302</v>
-      </c>
-      <c r="D66" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67">
-        <v>2311</v>
-      </c>
-      <c r="D67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68">
+        <v>2302</v>
+      </c>
+      <c r="D68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>2311</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
         <v>2312</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>207</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>208</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69">
-        <v>1311</v>
-      </c>
-      <c r="D69" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70">
-        <v>3317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="B71" t="s">
         <v>51</v>
       </c>
       <c r="C71">
+        <v>1311</v>
+      </c>
+      <c r="D71" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72">
+        <v>3317</v>
+      </c>
+      <c r="D72" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73">
         <v>3335</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>216</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>217</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>2910</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>220</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>221</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73">
-        <v>4424</v>
-      </c>
-      <c r="D73" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74">
-        <v>4429</v>
-      </c>
-      <c r="D74" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" t="s">
-        <v>227</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="B75" t="s">
         <v>55</v>
       </c>
       <c r="C75">
-        <v>4810</v>
+        <v>4424</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E75" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
       </c>
       <c r="C76">
+        <v>4429</v>
+      </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>4810</v>
+      </c>
+      <c r="D77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78">
         <v>4821</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>232</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>233</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77">
-        <v>3410</v>
-      </c>
-      <c r="D77" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" t="s">
-        <v>233</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78">
-        <v>3420</v>
-      </c>
-      <c r="D78" t="s">
-        <v>237</v>
-      </c>
-      <c r="E78" t="s">
-        <v>238</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="B79" t="s">
         <v>33</v>
       </c>
       <c r="C79">
+        <v>3410</v>
+      </c>
+      <c r="D79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>3420</v>
+      </c>
+      <c r="D80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
         <v>4460</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>240</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>241</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>2713</v>
-      </c>
-      <c r="D80" t="s">
-        <v>243</v>
-      </c>
-      <c r="E80" t="s">
-        <v>244</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81">
-        <v>2712</v>
-      </c>
-      <c r="D81" t="s">
-        <v>246</v>
-      </c>
-      <c r="E81" t="s">
-        <v>247</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
       </c>
       <c r="C82">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83">
-        <v>2731</v>
+        <v>2712</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84">
-        <v>3712</v>
+        <v>2719</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E84" t="s">
         <v>250</v>
@@ -2910,43 +2925,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>2731</v>
+      </c>
+      <c r="D85" t="s">
+        <v>252</v>
+      </c>
+      <c r="E85" t="s">
+        <v>253</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>3712</v>
+      </c>
+      <c r="D86" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>257</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>1510</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>258</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E87" t="s">
         <v>259</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>1200</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>262</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>263</v>
       </c>
-      <c r="F86">
+      <c r="F88">
         <v>1</v>
       </c>
     </row>
